--- a/src/test/resources/testdata/OpenEmrData.xlsx
+++ b/src/test/resources/testdata/OpenEmrData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JiDi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B-Mine\Company\Company\Scientific Games2\java_selenium_workspace\OpenEmrApplication\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,31 +32,31 @@
     <t>Password</t>
   </si>
   <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>English (Indian)</t>
+  </si>
+  <si>
+    <t>Invalid usernama and password</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>john123</t>
+  </si>
+  <si>
+    <t>bala</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
     <t>Language</t>
   </si>
   <si>
-    <t>ExpectedValue</t>
-  </si>
-  <si>
-    <t>admin123</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>English (Indian)</t>
-  </si>
-  <si>
-    <t>Invalid usernama and password</t>
-  </si>
-  <si>
-    <t>john</t>
-  </si>
-  <si>
-    <t>john123</t>
-  </si>
-  <si>
-    <t>Dutch</t>
+    <t>expectedValue</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,38 +396,38 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/OpenEmrData.xlsx
+++ b/src/test/resources/testdata/OpenEmrData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Username</t>
   </si>
@@ -38,9 +38,6 @@
     <t>English (Indian)</t>
   </si>
   <si>
-    <t>Invalid usernama and password</t>
-  </si>
-  <si>
     <t>john</t>
   </si>
   <si>
@@ -57,6 +54,15 @@
   </si>
   <si>
     <t>expectedValue</t>
+  </si>
+  <si>
+    <t>Invalid username or password</t>
+  </si>
+  <si>
+    <t>bala123</t>
+  </si>
+  <si>
+    <t>Invalid username or password123</t>
   </si>
 </sst>
 </file>
@@ -374,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,10 +402,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -407,27 +413,41 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/OpenEmrData.xlsx
+++ b/src/test/resources/testdata/OpenEmrData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Username</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>bala123</t>
-  </si>
-  <si>
-    <t>Invalid username or password123</t>
   </si>
 </sst>
 </file>
@@ -447,7 +444,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/OpenEmrData.xlsx
+++ b/src/test/resources/testdata/OpenEmrData.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="invalidCredentialTest" sheetId="1" r:id="rId1"/>
+    <sheet name="checkAboutHeaderAndVersionTest" sheetId="2" r:id="rId2"/>
+    <sheet name="addPatientTest" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>Username</t>
   </si>
@@ -60,6 +62,66 @@
   </si>
   <si>
     <t>bala123</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>ExpectedHeader</t>
+  </si>
+  <si>
+    <t>ExpectedVersion</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>About OpenEMR</t>
+  </si>
+  <si>
+    <t>v6.0.0</t>
+  </si>
+  <si>
+    <t>accountant</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Expected AlertText</t>
+  </si>
+  <si>
+    <t>Expected Patient Name</t>
+  </si>
+  <si>
+    <t>Bala</t>
+  </si>
+  <si>
+    <t>Dina</t>
+  </si>
+  <si>
+    <t>2021-08-16</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Tobacco</t>
+  </si>
+  <si>
+    <t>Medical Record Dashboard - Bala Dina</t>
   </si>
 </sst>
 </file>
@@ -95,8 +157,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,7 +442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -450,4 +513,158 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>